--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ltf-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ltf-Lrp1.xlsx
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>Ltf</t>
+  </si>
+  <si>
+    <t>Lrp1</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Ltf</t>
-  </si>
-  <si>
-    <t>Lrp1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -528,19 +528,19 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1832233333333333</v>
+        <v>0.03556333333333333</v>
       </c>
       <c r="H2">
-        <v>0.54967</v>
+        <v>0.10669</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.131233999999999</v>
+        <v>3.795192333333334</v>
       </c>
       <c r="N2">
-        <v>24.393702</v>
+        <v>11.385577</v>
       </c>
       <c r="O2">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="P2">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="Q2">
-        <v>1.489831797593333</v>
+        <v>0.1349696900144444</v>
       </c>
       <c r="R2">
-        <v>13.40848617834</v>
+        <v>1.21472721013</v>
       </c>
       <c r="S2">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="T2">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,19 +590,19 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1832233333333333</v>
+        <v>0.03556333333333333</v>
       </c>
       <c r="H3">
-        <v>0.54967</v>
+        <v>0.10669</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -620,25 +620,25 @@
         <v>243.3763986666667</v>
       </c>
       <c r="N3">
-        <v>730.129196</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O3">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="P3">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="Q3">
-        <v>44.59223501836888</v>
+        <v>8.655275991248889</v>
       </c>
       <c r="R3">
-        <v>401.33011516532</v>
+        <v>77.89748392124001</v>
       </c>
       <c r="S3">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="T3">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,19 +652,19 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1832233333333333</v>
+        <v>0.03556333333333333</v>
       </c>
       <c r="H4">
-        <v>0.54967</v>
+        <v>0.10669</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.41874933333333</v>
+        <v>29.801371</v>
       </c>
       <c r="N4">
-        <v>100.256248</v>
+        <v>89.404113</v>
       </c>
       <c r="O4">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219236</v>
       </c>
       <c r="P4">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219235</v>
       </c>
       <c r="Q4">
-        <v>6.123094648684444</v>
+        <v>1.059836090663333</v>
       </c>
       <c r="R4">
-        <v>55.10785183816</v>
+        <v>9.538524815969998</v>
       </c>
       <c r="S4">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219236</v>
       </c>
       <c r="T4">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219235</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,19 +714,19 @@
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.1832233333333333</v>
+        <v>0.03556333333333333</v>
       </c>
       <c r="H5">
-        <v>0.54967</v>
+        <v>0.10669</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>103.9426383333333</v>
+        <v>86.47679266666667</v>
       </c>
       <c r="N5">
-        <v>311.827915</v>
+        <v>259.430378</v>
       </c>
       <c r="O5">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="P5">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="Q5">
-        <v>19.04471667089444</v>
+        <v>3.075403003202222</v>
       </c>
       <c r="R5">
-        <v>171.40245003805</v>
+        <v>27.67862702882</v>
       </c>
       <c r="S5">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="T5">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
     </row>
   </sheetData>
